--- a/data/IMP.MI.xlsx
+++ b/data/IMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -373,6 +373,9 @@
   <si>
     <t xml:space="preserve">3.05999994277954</t>
   </si>
+  <si>
+    <t xml:space="preserve">3.22000002861023</t>
+  </si>
 </sst>
 </file>
 
@@ -13115,7 +13118,7 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>45446.6169328704</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B478" t="n">
         <v>7200</v>
@@ -13136,6 +13139,32 @@
         <v>116</v>
       </c>
       <c r="H478" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>45447.6493171296</v>
+      </c>
+      <c r="B479" t="n">
+        <v>57600</v>
+      </c>
+      <c r="C479" t="n">
+        <v>3.33999991416931</v>
+      </c>
+      <c r="D479" t="n">
+        <v>3.09999990463257</v>
+      </c>
+      <c r="E479" t="n">
+        <v>3.14000010490417</v>
+      </c>
+      <c r="F479" t="n">
+        <v>3.22000002861023</v>
+      </c>
+      <c r="G479" t="s">
+        <v>120</v>
+      </c>
+      <c r="H479" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IMP.MI.xlsx
+++ b/data/IMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -376,6 +376,9 @@
   <si>
     <t xml:space="preserve">3.22000002861023</t>
   </si>
+  <si>
+    <t xml:space="preserve">3.27999997138977</t>
+  </si>
 </sst>
 </file>
 
@@ -13144,7 +13147,7 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>45447.6493171296</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B479" t="n">
         <v>57600</v>
@@ -13165,6 +13168,32 @@
         <v>120</v>
       </c>
       <c r="H479" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>45448.6412962963</v>
+      </c>
+      <c r="B480" t="n">
+        <v>31200</v>
+      </c>
+      <c r="C480" t="n">
+        <v>3.3199999332428</v>
+      </c>
+      <c r="D480" t="n">
+        <v>3.20000004768372</v>
+      </c>
+      <c r="E480" t="n">
+        <v>3.3199999332428</v>
+      </c>
+      <c r="F480" t="n">
+        <v>3.27999997138977</v>
+      </c>
+      <c r="G480" t="s">
+        <v>121</v>
+      </c>
+      <c r="H480" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IMP.MI.xlsx
+++ b/data/IMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -376,9 +376,6 @@
   <si>
     <t xml:space="preserve">3.22000002861023</t>
   </si>
-  <si>
-    <t xml:space="preserve">3.27999997138977</t>
-  </si>
 </sst>
 </file>
 
@@ -13173,25 +13170,25 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>45448.6412962963</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B480" t="n">
-        <v>31200</v>
+        <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>3.3199999332428</v>
+        <v>3.22000002861023</v>
       </c>
       <c r="D480" t="n">
-        <v>3.20000004768372</v>
+        <v>3.22000002861023</v>
       </c>
       <c r="E480" t="n">
-        <v>3.3199999332428</v>
+        <v>3.22000002861023</v>
       </c>
       <c r="F480" t="n">
-        <v>3.27999997138977</v>
+        <v>3.22000002861023</v>
       </c>
       <c r="G480" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>

--- a/data/IMP.MI.xlsx
+++ b/data/IMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -376,6 +376,9 @@
   <si>
     <t xml:space="preserve">3.22000002861023</t>
   </si>
+  <si>
+    <t xml:space="preserve">3.29999995231628</t>
+  </si>
 </sst>
 </file>
 
@@ -13194,6 +13197,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>45449.2916666667</v>
+      </c>
+      <c r="B481" t="n">
+        <v>20700</v>
+      </c>
+      <c r="C481" t="n">
+        <v>3.33999991416931</v>
+      </c>
+      <c r="D481" t="n">
+        <v>3.22000002861023</v>
+      </c>
+      <c r="E481" t="n">
+        <v>3.29999995231628</v>
+      </c>
+      <c r="F481" t="n">
+        <v>3.29999995231628</v>
+      </c>
+      <c r="G481" t="s">
+        <v>121</v>
+      </c>
+      <c r="H481" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IMP.MI.xlsx
+++ b/data/IMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,346 +38,349 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64267110824585</t>
+    <t xml:space="preserve">4.51669645309448</t>
   </si>
   <si>
     <t xml:space="preserve">IMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63279342651367</t>
+    <t xml:space="preserve">4.50708675384521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58340311050415</t>
+    <t xml:space="preserve">4.4590368270874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70194005966187</t>
+    <t xml:space="preserve">4.57435655593872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84023189544678</t>
+    <t xml:space="preserve">4.70889663696289</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78096389770508</t>
+    <t xml:space="preserve">4.65123701095581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91431713104248</t>
+    <t xml:space="preserve">4.78097152709961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82047605514526</t>
+    <t xml:space="preserve">4.6896767616272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93901205062866</t>
+    <t xml:space="preserve">4.80499649047852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74145174026489</t>
+    <t xml:space="preserve">4.61279678344727</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56364727020264</t>
+    <t xml:space="preserve">4.43981695175171</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59328126907349</t>
+    <t xml:space="preserve">4.46864700317383</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42535495758057</t>
+    <t xml:space="preserve">4.30527687072754</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29200124740601</t>
+    <t xml:space="preserve">4.17554187774658</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14876985549927</t>
+    <t xml:space="preserve">4.03619718551636</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73389315605164</t>
+    <t xml:space="preserve">3.63257741928101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04998970031738</t>
+    <t xml:space="preserve">3.94009709358215</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08950185775757</t>
+    <t xml:space="preserve">3.97853708267212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24755048751831</t>
+    <t xml:space="preserve">4.13229703903198</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32657480239868</t>
+    <t xml:space="preserve">4.20917701721191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40559911727905</t>
+    <t xml:space="preserve">4.28605651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52413511276245</t>
+    <t xml:space="preserve">4.40137672424316</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54389095306396</t>
+    <t xml:space="preserve">4.42059659957886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66242742538452</t>
+    <t xml:space="preserve">4.53591632843018</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60315942764282</t>
+    <t xml:space="preserve">4.4782567024231</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76120805740356</t>
+    <t xml:space="preserve">4.63201665878296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48462295532227</t>
+    <t xml:space="preserve">4.36293649673462</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50437927246094</t>
+    <t xml:space="preserve">4.38215684890747</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36608695983887</t>
+    <t xml:space="preserve">4.24761724472046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46486711502075</t>
+    <t xml:space="preserve">4.34371662139893</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44511079788208</t>
+    <t xml:space="preserve">4.32449674606323</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68218326568604</t>
+    <t xml:space="preserve">4.55513620376587</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03779220581055</t>
+    <t xml:space="preserve">4.90109634399414</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3463306427002</t>
+    <t xml:space="preserve">4.22839689254761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26730680465698</t>
+    <t xml:space="preserve">4.15151691436768</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18828201293945</t>
+    <t xml:space="preserve">4.07463645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12901401519775</t>
+    <t xml:space="preserve">4.01697683334351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93145370483398</t>
+    <t xml:space="preserve">3.82477712631226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85242962837219</t>
+    <t xml:space="preserve">3.7478973865509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97096586227417</t>
+    <t xml:space="preserve">3.86321711540222</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87218570709229</t>
+    <t xml:space="preserve">3.76711750030518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75364923477173</t>
+    <t xml:space="preserve">3.6517972946167</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65486907958984</t>
+    <t xml:space="preserve">3.55569744110107</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55608868598938</t>
+    <t xml:space="preserve">3.45959758758545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61535692214966</t>
+    <t xml:space="preserve">3.51725745201111</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6800000667572</t>
+    <t xml:space="preserve">3.5801465511322</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70000004768372</t>
+    <t xml:space="preserve">3.59960389137268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57999992370605</t>
+    <t xml:space="preserve">3.48285984992981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61999988555908</t>
+    <t xml:space="preserve">3.52177429199219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55999994277954</t>
+    <t xml:space="preserve">3.46340250968933</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5</t>
+    <t xml:space="preserve">3.4050304889679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46000003814697</t>
+    <t xml:space="preserve">3.36611604690552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74000000953674</t>
+    <t xml:space="preserve">3.63851833343506</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75999999046326</t>
+    <t xml:space="preserve">3.65797567367554</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17999982833862</t>
+    <t xml:space="preserve">4.06657934188843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79999995231628</t>
+    <t xml:space="preserve">3.69689035415649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83999991416931</t>
+    <t xml:space="preserve">3.73580479621887</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
+    <t xml:space="preserve">3.8914635181427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92000007629395</t>
+    <t xml:space="preserve">3.81363439559937</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85999989509583</t>
+    <t xml:space="preserve">3.75526213645935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96000003814697</t>
+    <t xml:space="preserve">3.85254883766174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98000001907349</t>
+    <t xml:space="preserve">3.87200617790222</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11999988555908</t>
+    <t xml:space="preserve">4.00820732116699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19999980926514</t>
+    <t xml:space="preserve">4.08603668212891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09999990463257</t>
+    <t xml:space="preserve">3.98874998092651</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59999990463257</t>
+    <t xml:space="preserve">3.50231719017029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53999996185303</t>
+    <t xml:space="preserve">3.44394516944885</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48000001907349</t>
+    <t xml:space="preserve">3.385573387146</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">2.91859769821167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96000003814697</t>
+    <t xml:space="preserve">2.87968301773071</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92000007629395</t>
+    <t xml:space="preserve">2.84076833724976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90000009536743</t>
+    <t xml:space="preserve">2.82131123542786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88000011444092</t>
+    <t xml:space="preserve">2.80185389518738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85999989509583</t>
+    <t xml:space="preserve">2.78239631652832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83999991416931</t>
+    <t xml:space="preserve">2.76293897628784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77999997138977</t>
+    <t xml:space="preserve">2.70456719398499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75999999046326</t>
+    <t xml:space="preserve">2.68510985374451</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74000000953674</t>
+    <t xml:space="preserve">2.66565251350403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79999995231628</t>
+    <t xml:space="preserve">2.72402453422546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66000008583069</t>
+    <t xml:space="preserve">2.58782339096069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6800000667572</t>
+    <t xml:space="preserve">2.60728073120117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72000002861023</t>
+    <t xml:space="preserve">2.64619517326355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48000001907349</t>
+    <t xml:space="preserve">2.41270732879639</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5</t>
+    <t xml:space="preserve">2.43216466903687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44000005722046</t>
+    <t xml:space="preserve">2.37379288673401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35999989509583</t>
+    <t xml:space="preserve">2.29596328735352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40000009536743</t>
+    <t xml:space="preserve">2.33487820625305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38000011444092</t>
+    <t xml:space="preserve">2.31542086601257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29999995231628</t>
+    <t xml:space="preserve">2.23759150505066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1800000667572</t>
+    <t xml:space="preserve">2.12084770202637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27999997138977</t>
+    <t xml:space="preserve">2.21813416481018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09999990463257</t>
+    <t xml:space="preserve">2.04301834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07999992370605</t>
+    <t xml:space="preserve">2.02356100082397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03999996185303</t>
+    <t xml:space="preserve">1.98464632034302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3199999332428</t>
+    <t xml:space="preserve">2.25704884529114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20000004768372</t>
+    <t xml:space="preserve">2.14030504226685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11999988555908</t>
+    <t xml:space="preserve">2.06247544288635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33999991416931</t>
+    <t xml:space="preserve">2.27650618553162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22000002861023</t>
+    <t xml:space="preserve">2.15976238250732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24000000953674</t>
+    <t xml:space="preserve">2.17921948432922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25999999046326</t>
+    <t xml:space="preserve">2.1986768245697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59999990463257</t>
+    <t xml:space="preserve">2.52945113182068</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88000011444092</t>
+    <t xml:space="preserve">3.77471971511841</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40000009536743</t>
+    <t xml:space="preserve">3.30774402618408</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1800000667572</t>
+    <t xml:space="preserve">3.0937135219574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07999992370605</t>
+    <t xml:space="preserve">2.996426820755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98000001907349</t>
+    <t xml:space="preserve">2.89914035797119</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09999990463257</t>
+    <t xml:space="preserve">3.01588416099548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03999996185303</t>
+    <t xml:space="preserve">2.95751214027405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94000005722046</t>
+    <t xml:space="preserve">2.86022567749023</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05999994277954</t>
+    <t xml:space="preserve">2.97696948051453</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22000002861023</t>
+    <t xml:space="preserve">3.13262820243835</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29999995231628</t>
+    <t xml:space="preserve">3.21045732498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19099998474121</t>
   </si>
 </sst>
 </file>
@@ -13223,6 +13226,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>45450.2916666667</v>
+      </c>
+      <c r="B482" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C482" t="n">
+        <v>3.38000011444092</v>
+      </c>
+      <c r="D482" t="n">
+        <v>3.25999999046326</v>
+      </c>
+      <c r="E482" t="n">
+        <v>3.29999995231628</v>
+      </c>
+      <c r="F482" t="n">
+        <v>3.27999997138977</v>
+      </c>
+      <c r="G482" t="s">
+        <v>122</v>
+      </c>
+      <c r="H482" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
